--- a/20230215_VXI-11 通信の概要/303j_VXI_11_Figure_B_3.xlsx
+++ b/20230215_VXI-11 通信の概要/303j_VXI_11_Figure_B_3.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A0BEE8-F193-4EBC-BACE-F3FDCE1D3640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEF6BA4-475F-43E1-A157-7C302015DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet4!$A$1:$H$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,43 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t>Ethernet/802.3</t>
-  </si>
-  <si>
-    <t>802.3/10BASE-T</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Instrument</t>
-  </si>
-  <si>
-    <t>LAN</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>アプリケーション層</t>
     <rPh sb="8" eb="9">
@@ -124,10 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ethernet Frame</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10BASE-T</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,29 +111,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>測定器</t>
-    <rPh sb="0" eb="3">
-      <t>ソクテイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IEEE488.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドライバ及びレシーバ</t>
-    <rPh sb="4" eb="5">
-      <t>オヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバイスファンクション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IEEE488,2</t>
+    <t>Ethernet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Network Instrument</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VXI-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSIモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規格番号</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RFC 1014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RFC 1057</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RFC 791</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RFC 793</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IEEE 802.3</t>
+  </si>
+  <si>
+    <t>IEEE 802.3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -195,20 +185,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -217,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,6 +237,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -248,16 +268,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>477695</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533953</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19551</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594881</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -280,52 +300,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3962953" cy="3591426"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1693334</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>373843</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>119990</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8F189E-C897-4FC1-A391-D7C943D9035D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5108864" y="1289242"/>
-          <a:ext cx="5934903" cy="1476581"/>
+          <a:off x="4535345" y="76295"/>
+          <a:ext cx="2174586" cy="1971580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,135 +610,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341ECC70-1862-4314-8B3B-0FB5679E2B9F}">
-  <dimension ref="A19:L27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>